--- a/xlsx/patchtest.xlsx
+++ b/xlsx/patchtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D625B-82A3-4F63-8221-764E2D4D8387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47C7E4-92B9-4B90-BD2D-C8099913B59F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="10605" xr2:uid="{223D2656-5FC4-4115-93E2-B7F83A06A2E7}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M7" sqref="M7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,10 +711,10 @@
         <v>4278</v>
       </c>
       <c r="M7">
-        <v>-1.9649573496393378</v>
+        <v>-2.2310027142784894</v>
       </c>
       <c r="N7">
-        <v>-4.1021587800310915</v>
+        <v>-4.3523115520638243</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
         <v>-6.0376420648450466</v>
       </c>
       <c r="D3">
-        <v>3.0500000000000002E-3</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E3">
         <v>81</v>
@@ -1103,7 +1103,7 @@
         <v>-3.1658270237818815</v>
       </c>
       <c r="H3">
-        <v>1.9300000000000001E-3</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I3">
         <v>81</v>
@@ -1115,7 +1115,7 @@
         <v>-6.3387613717641296</v>
       </c>
       <c r="L3">
-        <v>6.5599999999999999E-3</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="M3">
         <v>81</v>
@@ -1132,7 +1132,7 @@
         <v>-6.7493678958207219</v>
       </c>
       <c r="D4">
-        <v>2.8199999999999999E-2</v>
+        <v>0.629</v>
       </c>
       <c r="E4">
         <v>289</v>
@@ -1144,7 +1144,7 @@
         <v>-3.4679552788962376</v>
       </c>
       <c r="H4">
-        <v>6.8999999999999999E-3</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I4">
         <v>289</v>
@@ -1156,7 +1156,7 @@
         <v>-7.0571250995455221</v>
       </c>
       <c r="L4">
-        <v>0.16800000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="M4">
         <v>289</v>
@@ -1173,7 +1173,7 @@
         <v>-7.5584269668979625</v>
       </c>
       <c r="D5">
-        <v>0.97299999999999998</v>
+        <v>3.0329999999999999</v>
       </c>
       <c r="E5">
         <v>1089</v>
@@ -1185,7 +1185,7 @@
         <v>-3.9583232272861144</v>
       </c>
       <c r="H5">
-        <v>0.17599999999999999</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="I5">
         <v>1089</v>
@@ -1197,7 +1197,7 @@
         <v>-7.7595842237709887</v>
       </c>
       <c r="L5">
-        <v>7.69</v>
+        <v>7.0389999999999997</v>
       </c>
       <c r="M5">
         <v>1089</v>
@@ -1214,22 +1214,31 @@
         <v>-8.1526989506592127</v>
       </c>
       <c r="D6">
-        <v>31.4</v>
+        <v>12.24</v>
       </c>
       <c r="E6">
         <v>4255</v>
       </c>
       <c r="F6">
-        <v>-1.9649573496393378</v>
+        <v>-2.2310027142784894</v>
       </c>
       <c r="G6">
-        <v>-4.1021587800310915</v>
+        <v>-4.3523115520638243</v>
       </c>
       <c r="H6">
-        <v>7.11</v>
+        <v>6.5739999999999998</v>
       </c>
       <c r="I6">
         <v>4255</v>
+      </c>
+      <c r="J6">
+        <v>-6.3476422411764517</v>
+      </c>
+      <c r="K6">
+        <v>-8.4080151174872046</v>
+      </c>
+      <c r="L6">
+        <v>42.1</v>
       </c>
       <c r="M6">
         <v>4255</v>

--- a/xlsx/patchtest.xlsx
+++ b/xlsx/patchtest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>H1</t>
   </si>
@@ -451,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -489,15 +489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
-        <v>24</v>
+        <v>6144</v>
       </c>
       <c r="B2">
-        <v>18.381953085037914</v>
+        <v>-0.9001639389680836</v>
       </c>
       <c r="C2">
-        <v>15.242299572283317</v>
+        <v>-1.318708584882681</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -527,15 +527,15 @@
         <v>37.294605051789219</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
-        <v>54</v>
+        <v>6144</v>
       </c>
       <c r="B3">
-        <v>14.453954331216149</v>
+        <v>-1.0811237034926648</v>
       </c>
       <c r="C3">
-        <v>11.409247369073801</v>
+        <v>-1.5955923241454992</v>
       </c>
       <c r="E3">
         <v>216</v>
@@ -565,7 +565,7 @@
         <v>32.57531015801991</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>90</v>
       </c>
@@ -603,7 +603,7 @@
         <v>15.837188147083669</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>96</v>
       </c>
@@ -641,7 +641,7 @@
         <v>13.201208403959567</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>150</v>
       </c>
@@ -679,7 +679,7 @@
         <v>-3.3611920172975931</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>180</v>
       </c>
@@ -717,7 +717,7 @@
         <v>-4.3523115520638243</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>216</v>
       </c>
@@ -746,7 +746,7 @@
         <v>-4.4024448298548258</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>294</v>
       </c>
@@ -775,7 +775,7 @@
         <v>-5.2621367301839852</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>384</v>
       </c>
@@ -804,7 +804,7 @@
         <v>-8.1526989506592127</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>486</v>
       </c>
@@ -833,7 +833,7 @@
         <v>-8.116016480307664</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>600</v>
       </c>
@@ -862,7 +862,7 @@
         <v>-8.1877029045245528</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>726</v>
       </c>
@@ -891,7 +891,7 @@
         <v>-8.2420957107082646</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>864</v>
       </c>
@@ -911,7 +911,7 @@
         <v>-7.0571250995455221</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -931,15 +931,15 @@
         <v>-7.0637593015914426</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
-        <v>1176</v>
+        <v>144</v>
       </c>
       <c r="B16">
-        <v>-3.5516595806195426</v>
+        <v>6.472559533826304</v>
       </c>
       <c r="C16">
-        <v>-6.4035691571144211</v>
+        <v>4.917467652425881</v>
       </c>
       <c r="E16">
         <v>1944</v>
@@ -951,7 +951,7 @@
         <v>-7.0708192188859487</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>1350</v>
       </c>
@@ -971,7 +971,7 @@
         <v>-7.0768220344607649</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>1536</v>
       </c>
@@ -991,7 +991,7 @@
         <v>-7.0828192964700039</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>1734</v>
       </c>
@@ -1019,27 +1019,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" t="s" s="1">
         <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="1">
         <v>12</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>-0.90308998699194298</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>-1.2041199826559199</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>-1.5051499783199001</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>-1.80617997398389</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>11</v>
       </c>
